--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
@@ -56968,10 +56968,8 @@
       <c r="D2079" t="inlineStr"/>
       <c r="E2079" t="inlineStr"/>
       <c r="F2079" t="inlineStr"/>
-      <c r="G2079" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2079" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2080">
@@ -57005,10 +57003,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2080" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2080" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2081">
@@ -57042,10 +57038,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G2081" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2081" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2082">
@@ -57079,10 +57073,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G2082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2083">
@@ -57116,10 +57108,8 @@
           <t>220.0K</t>
         </is>
       </c>
-      <c r="G2083" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2083" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2084">
@@ -57153,10 +57143,8 @@
           <t>-9.6</t>
         </is>
       </c>
-      <c r="G2084" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2084" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2085">
@@ -57190,10 +57178,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="G2085" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2085" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2086">
@@ -57227,10 +57213,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="G2086" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2086" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2087">
@@ -57264,10 +57248,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G2087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2088">
@@ -57301,10 +57283,8 @@
           <t>1875.0K</t>
         </is>
       </c>
-      <c r="G2088" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2088" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2089">
@@ -57338,10 +57318,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="G2089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2089" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2090">
@@ -57371,10 +57349,8 @@
           <t>225.0K</t>
         </is>
       </c>
-      <c r="G2090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2090" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2091">
@@ -57400,10 +57376,8 @@
       </c>
       <c r="E2091" t="inlineStr"/>
       <c r="F2091" t="inlineStr"/>
-      <c r="G2091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2092">
@@ -57429,10 +57403,8 @@
       </c>
       <c r="E2092" t="inlineStr"/>
       <c r="F2092" t="inlineStr"/>
-      <c r="G2092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2093">
@@ -57458,10 +57430,8 @@
       </c>
       <c r="E2093" t="inlineStr"/>
       <c r="F2093" t="inlineStr"/>
-      <c r="G2093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2094">
@@ -57487,10 +57457,8 @@
       </c>
       <c r="E2094" t="inlineStr"/>
       <c r="F2094" t="inlineStr"/>
-      <c r="G2094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2095">
@@ -57516,10 +57484,8 @@
       </c>
       <c r="E2095" t="inlineStr"/>
       <c r="F2095" t="inlineStr"/>
-      <c r="G2095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2096">
@@ -57549,10 +57515,8 @@
           <t>147.76</t>
         </is>
       </c>
-      <c r="G2096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2097">
@@ -57582,10 +57546,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G2097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2098">
@@ -57615,10 +57577,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G2098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2099">
@@ -57652,10 +57612,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="G2099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2100">
@@ -57685,10 +57643,8 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="G2100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2101">
@@ -57718,10 +57674,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="G2101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2102">
@@ -57739,10 +57693,8 @@
       <c r="D2102" t="inlineStr"/>
       <c r="E2102" t="inlineStr"/>
       <c r="F2102" t="inlineStr"/>
-      <c r="G2102" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2102" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2103">
@@ -57776,10 +57728,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G2103" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2103" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2104">
@@ -57813,10 +57763,8 @@
           <t>77.8%</t>
         </is>
       </c>
-      <c r="G2104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2105">
@@ -57846,10 +57794,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="G2105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2106">
@@ -57883,10 +57829,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="G2106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2107">
@@ -57916,10 +57860,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="G2107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2108">
@@ -57953,10 +57895,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G2108" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2108" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2109">
@@ -57990,10 +57930,8 @@
           <t>40</t>
         </is>
       </c>
-      <c r="G2109" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2109" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2110">
@@ -58027,10 +57965,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G2110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2111">
@@ -58060,10 +57996,8 @@
         </is>
       </c>
       <c r="F2111" t="inlineStr"/>
-      <c r="G2111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2112">
@@ -58089,10 +58023,8 @@
       </c>
       <c r="E2112" t="inlineStr"/>
       <c r="F2112" t="inlineStr"/>
-      <c r="G2112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2113">
@@ -58118,10 +58050,8 @@
       </c>
       <c r="E2113" t="inlineStr"/>
       <c r="F2113" t="inlineStr"/>
-      <c r="G2113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2114">
@@ -58147,10 +58077,8 @@
       </c>
       <c r="E2114" t="inlineStr"/>
       <c r="F2114" t="inlineStr"/>
-      <c r="G2114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2115">
@@ -58176,10 +58104,8 @@
       </c>
       <c r="E2115" t="inlineStr"/>
       <c r="F2115" t="inlineStr"/>
-      <c r="G2115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2116">
@@ -58197,10 +58123,8 @@
       <c r="D2116" t="inlineStr"/>
       <c r="E2116" t="inlineStr"/>
       <c r="F2116" t="inlineStr"/>
-      <c r="G2116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2117">
@@ -58218,10 +58142,8 @@
       <c r="D2117" t="inlineStr"/>
       <c r="E2117" t="inlineStr"/>
       <c r="F2117" t="inlineStr"/>
-      <c r="G2117" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2117" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2118">
@@ -58843,7 +58765,11 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="E2140" t="inlineStr"/>
+      <c r="E2140" t="inlineStr">
+        <is>
+          <t>-0.8%</t>
+        </is>
+      </c>
       <c r="F2140" t="inlineStr">
         <is>
           <t>-0.2%</t>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
@@ -58772,7 +58772,7 @@
       </c>
       <c r="F2140" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="G2140" t="inlineStr">
@@ -59366,7 +59366,11 @@
           <t>229K</t>
         </is>
       </c>
-      <c r="E2165" t="inlineStr"/>
+      <c r="E2165" t="inlineStr">
+        <is>
+          <t>232K</t>
+        </is>
+      </c>
       <c r="F2165" t="inlineStr">
         <is>
           <t>231.0K</t>
@@ -59540,7 +59544,11 @@
           <t>4.02M</t>
         </is>
       </c>
-      <c r="E2171" t="inlineStr"/>
+      <c r="E2171" t="inlineStr">
+        <is>
+          <t>4.1M</t>
+        </is>
+      </c>
       <c r="F2171" t="inlineStr">
         <is>
           <t>3.9M</t>
@@ -59832,7 +59840,11 @@
           <t>0.724M</t>
         </is>
       </c>
-      <c r="E2183" t="inlineStr"/>
+      <c r="E2183" t="inlineStr">
+        <is>
+          <t>0.70M</t>
+        </is>
+      </c>
       <c r="F2183" t="inlineStr">
         <is>
           <t>0.69M</t>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2189"/>
+  <dimension ref="A1:G2193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58751,55 +58751,51 @@
     <row r="2140">
       <c r="A2140" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:15 PM</t>
         </is>
       </c>
       <c r="B2140" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMAPR</t>
+          <t>Fed Jefferson Speech</t>
         </is>
       </c>
       <c r="C2140" t="inlineStr"/>
-      <c r="D2140" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E2140" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="F2140" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
+      <c r="D2140" t="inlineStr"/>
+      <c r="E2140" t="inlineStr"/>
+      <c r="F2140" t="inlineStr"/>
       <c r="G2140" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2141">
       <c r="A2141" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2141" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>CB Leading Index MoMAPR</t>
         </is>
       </c>
       <c r="C2141" t="inlineStr"/>
       <c r="D2141" t="inlineStr">
         <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="E2141" t="inlineStr"/>
-      <c r="F2141" t="inlineStr"/>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="E2141" t="inlineStr">
+        <is>
+          <t>-0.8%</t>
+        </is>
+      </c>
+      <c r="F2141" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
       <c r="G2141" t="inlineStr">
         <is>
           <t>3</t>
@@ -58814,13 +58810,13 @@
       </c>
       <c r="B2142" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C2142" t="inlineStr"/>
       <c r="D2142" t="inlineStr">
         <is>
-          <t>4.105%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="E2142" t="inlineStr"/>
@@ -58834,94 +58830,94 @@
     <row r="2143">
       <c r="A2143" t="inlineStr">
         <is>
-          <t>Tuesday May 20 2025</t>
-        </is>
-      </c>
-      <c r="B2143" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="C2143" t="inlineStr"/>
-      <c r="D2143" t="inlineStr"/>
+      <c r="D2143" t="inlineStr">
+        <is>
+          <t>4.105%</t>
+        </is>
+      </c>
       <c r="E2143" t="inlineStr"/>
       <c r="F2143" t="inlineStr"/>
-      <c r="G2143" t="inlineStr"/>
+      <c r="G2143" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2144">
       <c r="A2144" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B2144" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAY/17</t>
-        </is>
-      </c>
+          <t>Tuesday May 20 2025</t>
+        </is>
+      </c>
+      <c r="B2144" t="inlineStr"/>
       <c r="C2144" t="inlineStr"/>
-      <c r="D2144" t="inlineStr">
-        <is>
-          <t>5.8%</t>
-        </is>
-      </c>
+      <c r="D2144" t="inlineStr"/>
       <c r="E2144" t="inlineStr"/>
       <c r="F2144" t="inlineStr"/>
-      <c r="G2144" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2144" t="inlineStr"/>
     </row>
     <row r="2145">
       <c r="A2145" t="inlineStr">
         <is>
-          <t>Wednesday May 21 2025</t>
-        </is>
-      </c>
-      <c r="B2145" t="inlineStr"/>
+          <t>06:25 PM</t>
+        </is>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>Redbook YoYMAY/17</t>
+        </is>
+      </c>
       <c r="C2145" t="inlineStr"/>
-      <c r="D2145" t="inlineStr"/>
+      <c r="D2145" t="inlineStr">
+        <is>
+          <t>5.8%</t>
+        </is>
+      </c>
       <c r="E2145" t="inlineStr"/>
       <c r="F2145" t="inlineStr"/>
-      <c r="G2145" t="inlineStr"/>
+      <c r="G2145" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2146">
       <c r="A2146" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2146" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAY/16</t>
-        </is>
-      </c>
+          <t>Wednesday May 21 2025</t>
+        </is>
+      </c>
+      <c r="B2146" t="inlineStr"/>
       <c r="C2146" t="inlineStr"/>
-      <c r="D2146" t="inlineStr">
-        <is>
-          <t>4.287M</t>
-        </is>
-      </c>
+      <c r="D2146" t="inlineStr"/>
       <c r="E2146" t="inlineStr"/>
       <c r="F2146" t="inlineStr"/>
-      <c r="G2146" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2146" t="inlineStr"/>
     </row>
     <row r="2147">
       <c r="A2147" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2147" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/16</t>
+          <t>API Crude Oil Stock ChangeMAY/16</t>
         </is>
       </c>
       <c r="C2147" t="inlineStr"/>
       <c r="D2147" t="inlineStr">
         <is>
-          <t>6.86%</t>
+          <t>4.287M</t>
         </is>
       </c>
       <c r="E2147" t="inlineStr"/>
@@ -58935,25 +58931,21 @@
     <row r="2148">
       <c r="A2148" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B2148" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/16</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="C2148" t="inlineStr"/>
-      <c r="D2148" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="D2148" t="inlineStr"/>
       <c r="E2148" t="inlineStr"/>
       <c r="F2148" t="inlineStr"/>
       <c r="G2148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -58965,20 +58957,20 @@
       </c>
       <c r="B2149" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/16</t>
+          <t>MBA 30-Year Mortgage RateMAY/16</t>
         </is>
       </c>
       <c r="C2149" t="inlineStr"/>
       <c r="D2149" t="inlineStr">
         <is>
-          <t>251.2</t>
+          <t>6.86%</t>
         </is>
       </c>
       <c r="E2149" t="inlineStr"/>
       <c r="F2149" t="inlineStr"/>
       <c r="G2149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -58990,13 +58982,13 @@
       </c>
       <c r="B2150" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/16</t>
+          <t>MBA Mortgage ApplicationsMAY/16</t>
         </is>
       </c>
       <c r="C2150" t="inlineStr"/>
       <c r="D2150" t="inlineStr">
         <is>
-          <t>718.1</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="E2150" t="inlineStr"/>
@@ -59015,13 +59007,13 @@
       </c>
       <c r="B2151" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/16</t>
+          <t>MBA Mortgage Market IndexMAY/16</t>
         </is>
       </c>
       <c r="C2151" t="inlineStr"/>
       <c r="D2151" t="inlineStr">
         <is>
-          <t>166.5</t>
+          <t>251.2</t>
         </is>
       </c>
       <c r="E2151" t="inlineStr"/>
@@ -59035,50 +59027,50 @@
     <row r="2152">
       <c r="A2152" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2152" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/16</t>
+          <t>MBA Mortgage Refinance IndexMAY/16</t>
         </is>
       </c>
       <c r="C2152" t="inlineStr"/>
       <c r="D2152" t="inlineStr">
         <is>
-          <t>3.454M</t>
+          <t>718.1</t>
         </is>
       </c>
       <c r="E2152" t="inlineStr"/>
       <c r="F2152" t="inlineStr"/>
       <c r="G2152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2153">
       <c r="A2153" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2153" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAY/16</t>
+          <t>MBA Purchase IndexMAY/16</t>
         </is>
       </c>
       <c r="C2153" t="inlineStr"/>
       <c r="D2153" t="inlineStr">
         <is>
-          <t>-1.022M</t>
+          <t>166.5</t>
         </is>
       </c>
       <c r="E2153" t="inlineStr"/>
       <c r="F2153" t="inlineStr"/>
       <c r="G2153" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -59090,20 +59082,20 @@
       </c>
       <c r="B2154" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAY/16</t>
+          <t>EIA Crude Oil Stocks ChangeMAY/16</t>
         </is>
       </c>
       <c r="C2154" t="inlineStr"/>
       <c r="D2154" t="inlineStr">
         <is>
-          <t>0.422M</t>
+          <t>3.454M</t>
         </is>
       </c>
       <c r="E2154" t="inlineStr"/>
       <c r="F2154" t="inlineStr"/>
       <c r="G2154" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -59115,20 +59107,20 @@
       </c>
       <c r="B2155" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/16</t>
+          <t>EIA Gasoline Stocks ChangeMAY/16</t>
         </is>
       </c>
       <c r="C2155" t="inlineStr"/>
       <c r="D2155" t="inlineStr">
         <is>
-          <t>-1.069M</t>
+          <t>-1.022M</t>
         </is>
       </c>
       <c r="E2155" t="inlineStr"/>
       <c r="F2155" t="inlineStr"/>
       <c r="G2155" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -59140,13 +59132,13 @@
       </c>
       <c r="B2156" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/16</t>
+          <t>EIA Crude Oil Imports ChangeMAY/16</t>
         </is>
       </c>
       <c r="C2156" t="inlineStr"/>
       <c r="D2156" t="inlineStr">
         <is>
-          <t>-0.069M</t>
+          <t>0.422M</t>
         </is>
       </c>
       <c r="E2156" t="inlineStr"/>
@@ -59165,13 +59157,13 @@
       </c>
       <c r="B2157" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAY/16</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/16</t>
         </is>
       </c>
       <c r="C2157" t="inlineStr"/>
       <c r="D2157" t="inlineStr">
         <is>
-          <t>-3.155M</t>
+          <t>-1.069M</t>
         </is>
       </c>
       <c r="E2157" t="inlineStr"/>
@@ -59190,13 +59182,13 @@
       </c>
       <c r="B2158" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAY/16</t>
+          <t>EIA Distillate Fuel Production ChangeMAY/16</t>
         </is>
       </c>
       <c r="C2158" t="inlineStr"/>
       <c r="D2158" t="inlineStr">
         <is>
-          <t>-0.327M</t>
+          <t>-0.069M</t>
         </is>
       </c>
       <c r="E2158" t="inlineStr"/>
@@ -59215,13 +59207,13 @@
       </c>
       <c r="B2159" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/16</t>
+          <t>EIA Distillate Stocks ChangeMAY/16</t>
         </is>
       </c>
       <c r="C2159" t="inlineStr"/>
       <c r="D2159" t="inlineStr">
         <is>
-          <t>0.292M</t>
+          <t>-3.155M</t>
         </is>
       </c>
       <c r="E2159" t="inlineStr"/>
@@ -59240,13 +59232,13 @@
       </c>
       <c r="B2160" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/16</t>
+          <t>EIA Gasoline Production ChangeMAY/16</t>
         </is>
       </c>
       <c r="C2160" t="inlineStr"/>
       <c r="D2160" t="inlineStr">
         <is>
-          <t>0.33M</t>
+          <t>-0.327M</t>
         </is>
       </c>
       <c r="E2160" t="inlineStr"/>
@@ -59260,18 +59252,18 @@
     <row r="2161">
       <c r="A2161" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2161" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Heating Oil Stocks ChangeMAY/16</t>
         </is>
       </c>
       <c r="C2161" t="inlineStr"/>
       <c r="D2161" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>0.292M</t>
         </is>
       </c>
       <c r="E2161" t="inlineStr"/>
@@ -59285,18 +59277,18 @@
     <row r="2162">
       <c r="A2162" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2162" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>EIA Refinery Crude Runs ChangeMAY/16</t>
         </is>
       </c>
       <c r="C2162" t="inlineStr"/>
       <c r="D2162" t="inlineStr">
         <is>
-          <t>4.810%</t>
+          <t>0.33M</t>
         </is>
       </c>
       <c r="E2162" t="inlineStr"/>
@@ -59310,77 +59302,65 @@
     <row r="2163">
       <c r="A2163" t="inlineStr">
         <is>
-          <t>Thursday May 22 2025</t>
-        </is>
-      </c>
-      <c r="B2163" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B2163" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C2163" t="inlineStr"/>
-      <c r="D2163" t="inlineStr"/>
+      <c r="D2163" t="inlineStr">
+        <is>
+          <t>4.240%</t>
+        </is>
+      </c>
       <c r="E2163" t="inlineStr"/>
       <c r="F2163" t="inlineStr"/>
-      <c r="G2163" t="inlineStr"/>
+      <c r="G2163" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2164">
       <c r="A2164" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2164" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexAPR</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="C2164" t="inlineStr"/>
       <c r="D2164" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>4.810%</t>
         </is>
       </c>
       <c r="E2164" t="inlineStr"/>
-      <c r="F2164" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
+      <c r="F2164" t="inlineStr"/>
       <c r="G2164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2165">
       <c r="A2165" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2165" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/17</t>
-        </is>
-      </c>
+          <t>Thursday May 22 2025</t>
+        </is>
+      </c>
+      <c r="B2165" t="inlineStr"/>
       <c r="C2165" t="inlineStr"/>
-      <c r="D2165" t="inlineStr">
-        <is>
-          <t>229K</t>
-        </is>
-      </c>
-      <c r="E2165" t="inlineStr">
-        <is>
-          <t>232K</t>
-        </is>
-      </c>
-      <c r="F2165" t="inlineStr">
-        <is>
-          <t>231.0K</t>
-        </is>
-      </c>
-      <c r="G2165" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D2165" t="inlineStr"/>
+      <c r="E2165" t="inlineStr"/>
+      <c r="F2165" t="inlineStr"/>
+      <c r="G2165" t="inlineStr"/>
     </row>
     <row r="2166">
       <c r="A2166" t="inlineStr">
@@ -59390,24 +59370,24 @@
       </c>
       <c r="B2166" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsMAY/10</t>
+          <t>Chicago Fed National Activity IndexAPR</t>
         </is>
       </c>
       <c r="C2166" t="inlineStr"/>
       <c r="D2166" t="inlineStr">
         <is>
-          <t>1881K</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="E2166" t="inlineStr"/>
       <c r="F2166" t="inlineStr">
         <is>
-          <t>1885.0K</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="G2166" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -59419,16 +59399,20 @@
       </c>
       <c r="B2167" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageMAY/17</t>
+          <t>Initial Jobless ClaimsMAY/17</t>
         </is>
       </c>
       <c r="C2167" t="inlineStr"/>
       <c r="D2167" t="inlineStr">
         <is>
-          <t>230.5K</t>
-        </is>
-      </c>
-      <c r="E2167" t="inlineStr"/>
+          <t>229K</t>
+        </is>
+      </c>
+      <c r="E2167" t="inlineStr">
+        <is>
+          <t>232K</t>
+        </is>
+      </c>
       <c r="F2167" t="inlineStr">
         <is>
           <t>231.0K</t>
@@ -59436,65 +59420,65 @@
       </c>
       <c r="G2167" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2168">
       <c r="A2168" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2168" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashMAY</t>
+          <t>Continuing Jobless ClaimsMAY/10</t>
         </is>
       </c>
       <c r="C2168" t="inlineStr"/>
       <c r="D2168" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>1881K</t>
         </is>
       </c>
       <c r="E2168" t="inlineStr"/>
       <c r="F2168" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>1885.0K</t>
         </is>
       </c>
       <c r="G2168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2169">
       <c r="A2169" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2169" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashMAY</t>
+          <t>Jobless Claims 4-week AverageMAY/17</t>
         </is>
       </c>
       <c r="C2169" t="inlineStr"/>
       <c r="D2169" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>230.5K</t>
         </is>
       </c>
       <c r="E2169" t="inlineStr"/>
       <c r="F2169" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>231.0K</t>
         </is>
       </c>
       <c r="G2169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -59506,19 +59490,19 @@
       </c>
       <c r="B2170" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashMAY</t>
+          <t>S&amp;P Global Composite PMI FlashMAY</t>
         </is>
       </c>
       <c r="C2170" t="inlineStr"/>
       <c r="D2170" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="E2170" t="inlineStr"/>
       <c r="F2170" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="G2170" t="inlineStr">
@@ -59530,57 +59514,53 @@
     <row r="2171">
       <c r="A2171" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2171" t="inlineStr">
         <is>
-          <t>Existing Home SalesAPR</t>
+          <t>S&amp;P Global Manufacturing PMI FlashMAY</t>
         </is>
       </c>
       <c r="C2171" t="inlineStr"/>
       <c r="D2171" t="inlineStr">
         <is>
-          <t>4.02M</t>
-        </is>
-      </c>
-      <c r="E2171" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>50.2</t>
+        </is>
+      </c>
+      <c r="E2171" t="inlineStr"/>
       <c r="F2171" t="inlineStr">
         <is>
-          <t>3.9M</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="G2171" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2172">
       <c r="A2172" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2172" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMAPR</t>
+          <t>S&amp;P Global Services PMI FlashMAY</t>
         </is>
       </c>
       <c r="C2172" t="inlineStr"/>
       <c r="D2172" t="inlineStr">
         <is>
-          <t>-5.9%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="E2172" t="inlineStr"/>
       <c r="F2172" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="G2172" t="inlineStr">
@@ -59592,76 +59572,80 @@
     <row r="2173">
       <c r="A2173" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2173" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/16</t>
+          <t>Existing Home SalesAPR</t>
         </is>
       </c>
       <c r="C2173" t="inlineStr"/>
-      <c r="D2173" t="inlineStr"/>
-      <c r="E2173" t="inlineStr"/>
-      <c r="F2173" t="inlineStr"/>
+      <c r="D2173" t="inlineStr">
+        <is>
+          <t>4.02M</t>
+        </is>
+      </c>
+      <c r="E2173" t="inlineStr">
+        <is>
+          <t>4.1M</t>
+        </is>
+      </c>
+      <c r="F2173" t="inlineStr">
+        <is>
+          <t>3.9M</t>
+        </is>
+      </c>
       <c r="G2173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2174">
       <c r="A2174" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2174" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexMAY</t>
+          <t>Existing Home Sales MoMAPR</t>
         </is>
       </c>
       <c r="C2174" t="inlineStr"/>
       <c r="D2174" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-5.9%</t>
         </is>
       </c>
       <c r="E2174" t="inlineStr"/>
       <c r="F2174" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="G2174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2175">
       <c r="A2175" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2175" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexMAY</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/16</t>
         </is>
       </c>
       <c r="C2175" t="inlineStr"/>
-      <c r="D2175" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+      <c r="D2175" t="inlineStr"/>
       <c r="E2175" t="inlineStr"/>
-      <c r="F2175" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
+      <c r="F2175" t="inlineStr"/>
       <c r="G2175" t="inlineStr">
         <is>
           <t>3</t>
@@ -59671,18 +59655,26 @@
     <row r="2176">
       <c r="A2176" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2176" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Kansas Fed Composite IndexMAY</t>
         </is>
       </c>
       <c r="C2176" t="inlineStr"/>
-      <c r="D2176" t="inlineStr"/>
+      <c r="D2176" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
       <c r="E2176" t="inlineStr"/>
-      <c r="F2176" t="inlineStr"/>
+      <c r="F2176" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="G2176" t="inlineStr">
         <is>
           <t>3</t>
@@ -59692,18 +59684,26 @@
     <row r="2177">
       <c r="A2177" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2177" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Kansas Fed Manufacturing IndexMAY</t>
         </is>
       </c>
       <c r="C2177" t="inlineStr"/>
-      <c r="D2177" t="inlineStr"/>
+      <c r="D2177" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="E2177" t="inlineStr"/>
-      <c r="F2177" t="inlineStr"/>
+      <c r="F2177" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
       <c r="G2177" t="inlineStr">
         <is>
           <t>3</t>
@@ -59713,20 +59713,16 @@
     <row r="2178">
       <c r="A2178" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2178" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2178" t="inlineStr"/>
-      <c r="D2178" t="inlineStr">
-        <is>
-          <t>1.935%</t>
-        </is>
-      </c>
+      <c r="D2178" t="inlineStr"/>
       <c r="E2178" t="inlineStr"/>
       <c r="F2178" t="inlineStr"/>
       <c r="G2178" t="inlineStr">
@@ -59738,20 +59734,16 @@
     <row r="2179">
       <c r="A2179" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2179" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateMAY/22</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2179" t="inlineStr"/>
-      <c r="D2179" t="inlineStr">
-        <is>
-          <t>5.92%</t>
-        </is>
-      </c>
+      <c r="D2179" t="inlineStr"/>
       <c r="E2179" t="inlineStr"/>
       <c r="F2179" t="inlineStr"/>
       <c r="G2179" t="inlineStr">
@@ -59768,13 +59760,13 @@
       </c>
       <c r="B2180" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateMAY/22</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C2180" t="inlineStr"/>
       <c r="D2180" t="inlineStr">
         <is>
-          <t>6.81%</t>
+          <t>1.935%</t>
         </is>
       </c>
       <c r="E2180" t="inlineStr"/>
@@ -59788,31 +59780,43 @@
     <row r="2181">
       <c r="A2181" t="inlineStr">
         <is>
-          <t>Friday May 23 2025</t>
-        </is>
-      </c>
-      <c r="B2181" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateMAY/22</t>
+        </is>
+      </c>
       <c r="C2181" t="inlineStr"/>
-      <c r="D2181" t="inlineStr"/>
+      <c r="D2181" t="inlineStr">
+        <is>
+          <t>5.92%</t>
+        </is>
+      </c>
       <c r="E2181" t="inlineStr"/>
       <c r="F2181" t="inlineStr"/>
-      <c r="G2181" t="inlineStr"/>
+      <c r="G2181" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2182">
       <c r="A2182" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2182" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAY/21</t>
+          <t>30-Year Mortgage RateMAY/22</t>
         </is>
       </c>
       <c r="C2182" t="inlineStr"/>
       <c r="D2182" t="inlineStr">
         <is>
-          <t>$6.71T</t>
+          <t>6.81%</t>
         </is>
       </c>
       <c r="E2182" t="inlineStr"/>
@@ -59826,141 +59830,137 @@
     <row r="2183">
       <c r="A2183" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2183" t="inlineStr">
-        <is>
-          <t>New Home SalesAPR</t>
-        </is>
-      </c>
+          <t>Friday May 23 2025</t>
+        </is>
+      </c>
+      <c r="B2183" t="inlineStr"/>
       <c r="C2183" t="inlineStr"/>
-      <c r="D2183" t="inlineStr">
-        <is>
-          <t>0.724M</t>
-        </is>
-      </c>
-      <c r="E2183" t="inlineStr">
-        <is>
-          <t>0.70M</t>
-        </is>
-      </c>
-      <c r="F2183" t="inlineStr">
-        <is>
-          <t>0.69M</t>
-        </is>
-      </c>
-      <c r="G2183" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D2183" t="inlineStr"/>
+      <c r="E2183" t="inlineStr"/>
+      <c r="F2183" t="inlineStr"/>
+      <c r="G2183" t="inlineStr"/>
     </row>
     <row r="2184">
       <c r="A2184" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2184" t="inlineStr">
         <is>
-          <t>New Home Sales MoMAPR</t>
+          <t>Fed Balance SheetMAY/21</t>
         </is>
       </c>
       <c r="C2184" t="inlineStr"/>
       <c r="D2184" t="inlineStr">
         <is>
-          <t>7.4%</t>
+          <t>$6.71T</t>
         </is>
       </c>
       <c r="E2184" t="inlineStr"/>
-      <c r="F2184" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="F2184" t="inlineStr"/>
       <c r="G2184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2185">
       <c r="A2185" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2185" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/23</t>
+          <t>New Home SalesAPR</t>
         </is>
       </c>
       <c r="C2185" t="inlineStr"/>
-      <c r="D2185" t="inlineStr"/>
-      <c r="E2185" t="inlineStr"/>
-      <c r="F2185" t="inlineStr"/>
+      <c r="D2185" t="inlineStr">
+        <is>
+          <t>0.724M</t>
+        </is>
+      </c>
+      <c r="E2185" t="inlineStr">
+        <is>
+          <t>0.70M</t>
+        </is>
+      </c>
+      <c r="F2185" t="inlineStr">
+        <is>
+          <t>0.69M</t>
+        </is>
+      </c>
       <c r="G2185" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2186">
       <c r="A2186" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2186" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/23</t>
+          <t>New Home Sales MoMAPR</t>
         </is>
       </c>
       <c r="C2186" t="inlineStr"/>
-      <c r="D2186" t="inlineStr"/>
+      <c r="D2186" t="inlineStr">
+        <is>
+          <t>7.4%</t>
+        </is>
+      </c>
       <c r="E2186" t="inlineStr"/>
-      <c r="F2186" t="inlineStr"/>
+      <c r="F2186" t="inlineStr">
+        <is>
+          <t>-4.7%</t>
+        </is>
+      </c>
       <c r="G2186" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2187">
-      <c r="A2187" t="inlineStr"/>
+      <c r="A2187" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
       <c r="B2187" t="inlineStr">
         <is>
-          <t>Building Permits FinalAPR</t>
+          <t>Fed Cook Speech</t>
         </is>
       </c>
       <c r="C2187" t="inlineStr"/>
-      <c r="D2187" t="inlineStr">
-        <is>
-          <t>1.467M</t>
-        </is>
-      </c>
+      <c r="D2187" t="inlineStr"/>
       <c r="E2187" t="inlineStr"/>
       <c r="F2187" t="inlineStr"/>
       <c r="G2187" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2188">
-      <c r="A2188" t="inlineStr"/>
+      <c r="A2188" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
       <c r="B2188" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalAPR</t>
+          <t>Baker Hughes Oil Rig CountMAY/23</t>
         </is>
       </c>
       <c r="C2188" t="inlineStr"/>
-      <c r="D2188" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="D2188" t="inlineStr"/>
       <c r="E2188" t="inlineStr"/>
       <c r="F2188" t="inlineStr"/>
       <c r="G2188" t="inlineStr">
@@ -59972,15 +59972,99 @@
     <row r="2189">
       <c r="A2189" t="inlineStr">
         <is>
-          <t>Monday May 26 2025</t>
-        </is>
-      </c>
-      <c r="B2189" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountMAY/23</t>
+        </is>
+      </c>
       <c r="C2189" t="inlineStr"/>
       <c r="D2189" t="inlineStr"/>
       <c r="E2189" t="inlineStr"/>
       <c r="F2189" t="inlineStr"/>
-      <c r="G2189" t="inlineStr"/>
+      <c r="G2189" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="inlineStr"/>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>Building Permits FinalAPR</t>
+        </is>
+      </c>
+      <c r="C2190" t="inlineStr"/>
+      <c r="D2190" t="inlineStr">
+        <is>
+          <t>1.467M</t>
+        </is>
+      </c>
+      <c r="E2190" t="inlineStr"/>
+      <c r="F2190" t="inlineStr"/>
+      <c r="G2190" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="inlineStr"/>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>Building Permits MoM FinalAPR</t>
+        </is>
+      </c>
+      <c r="C2191" t="inlineStr"/>
+      <c r="D2191" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E2191" t="inlineStr"/>
+      <c r="F2191" t="inlineStr"/>
+      <c r="G2191" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="inlineStr">
+        <is>
+          <t>Monday May 26 2025</t>
+        </is>
+      </c>
+      <c r="B2192" t="inlineStr"/>
+      <c r="C2192" t="inlineStr"/>
+      <c r="D2192" t="inlineStr"/>
+      <c r="E2192" t="inlineStr"/>
+      <c r="F2192" t="inlineStr"/>
+      <c r="G2192" t="inlineStr"/>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="inlineStr">
+        <is>
+          <t>12:10 AM</t>
+        </is>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>Fed Chair Powell Speech</t>
+        </is>
+      </c>
+      <c r="C2193" t="inlineStr"/>
+      <c r="D2193" t="inlineStr"/>
+      <c r="E2193" t="inlineStr"/>
+      <c r="F2193" t="inlineStr"/>
+      <c r="G2193" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2193"/>
+  <dimension ref="A1:G2206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58751,12 +58751,12 @@
     <row r="2140">
       <c r="A2140" t="inlineStr">
         <is>
-          <t>06:15 PM</t>
+          <t>02:50 AM</t>
         </is>
       </c>
       <c r="B2140" t="inlineStr">
         <is>
-          <t>Fed Jefferson Speech</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C2140" t="inlineStr"/>
@@ -58772,114 +58772,114 @@
     <row r="2141">
       <c r="A2141" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2141" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMAPR</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C2141" t="inlineStr"/>
-      <c r="D2141" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E2141" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="F2141" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
+      <c r="D2141" t="inlineStr"/>
+      <c r="E2141" t="inlineStr"/>
+      <c r="F2141" t="inlineStr"/>
       <c r="G2141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2142">
       <c r="A2142" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:15 PM</t>
         </is>
       </c>
       <c r="B2142" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Fed Jefferson Speech</t>
         </is>
       </c>
       <c r="C2142" t="inlineStr"/>
-      <c r="D2142" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="D2142" t="inlineStr"/>
       <c r="E2142" t="inlineStr"/>
       <c r="F2142" t="inlineStr"/>
       <c r="G2142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2143">
       <c r="A2143" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:15 PM</t>
         </is>
       </c>
       <c r="B2143" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C2143" t="inlineStr"/>
-      <c r="D2143" t="inlineStr">
-        <is>
-          <t>4.105%</t>
-        </is>
-      </c>
+      <c r="D2143" t="inlineStr"/>
       <c r="E2143" t="inlineStr"/>
       <c r="F2143" t="inlineStr"/>
       <c r="G2143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2144">
       <c r="A2144" t="inlineStr">
         <is>
-          <t>Tuesday May 20 2025</t>
-        </is>
-      </c>
-      <c r="B2144" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>CB Leading Index MoMAPR</t>
+        </is>
+      </c>
       <c r="C2144" t="inlineStr"/>
-      <c r="D2144" t="inlineStr"/>
-      <c r="E2144" t="inlineStr"/>
-      <c r="F2144" t="inlineStr"/>
-      <c r="G2144" t="inlineStr"/>
+      <c r="D2144" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="E2144" t="inlineStr">
+        <is>
+          <t>-0.8%</t>
+        </is>
+      </c>
+      <c r="F2144" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="G2144" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2145">
       <c r="A2145" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2145" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/17</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C2145" t="inlineStr"/>
       <c r="D2145" t="inlineStr">
         <is>
-          <t>5.8%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="E2145" t="inlineStr"/>
@@ -58893,33 +58893,41 @@
     <row r="2146">
       <c r="A2146" t="inlineStr">
         <is>
-          <t>Wednesday May 21 2025</t>
-        </is>
-      </c>
-      <c r="B2146" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="C2146" t="inlineStr"/>
-      <c r="D2146" t="inlineStr"/>
+      <c r="D2146" t="inlineStr">
+        <is>
+          <t>4.105%</t>
+        </is>
+      </c>
       <c r="E2146" t="inlineStr"/>
       <c r="F2146" t="inlineStr"/>
-      <c r="G2146" t="inlineStr"/>
+      <c r="G2146" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2147">
       <c r="A2147" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:45 PM</t>
         </is>
       </c>
       <c r="B2147" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/16</t>
+          <t>Fed Logan Speech</t>
         </is>
       </c>
       <c r="C2147" t="inlineStr"/>
-      <c r="D2147" t="inlineStr">
-        <is>
-          <t>4.287M</t>
-        </is>
-      </c>
+      <c r="D2147" t="inlineStr"/>
       <c r="E2147" t="inlineStr"/>
       <c r="F2147" t="inlineStr"/>
       <c r="G2147" t="inlineStr">
@@ -58931,12 +58939,12 @@
     <row r="2148">
       <c r="A2148" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2148" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Fed Kashkari Speech</t>
         </is>
       </c>
       <c r="C2148" t="inlineStr"/>
@@ -58952,43 +58960,31 @@
     <row r="2149">
       <c r="A2149" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2149" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAY/16</t>
-        </is>
-      </c>
+          <t>Tuesday May 20 2025</t>
+        </is>
+      </c>
+      <c r="B2149" t="inlineStr"/>
       <c r="C2149" t="inlineStr"/>
-      <c r="D2149" t="inlineStr">
-        <is>
-          <t>6.86%</t>
-        </is>
-      </c>
+      <c r="D2149" t="inlineStr"/>
       <c r="E2149" t="inlineStr"/>
       <c r="F2149" t="inlineStr"/>
-      <c r="G2149" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2149" t="inlineStr"/>
     </row>
     <row r="2150">
       <c r="A2150" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:25 PM</t>
         </is>
       </c>
       <c r="B2150" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/16</t>
+          <t>Redbook YoYMAY/17</t>
         </is>
       </c>
       <c r="C2150" t="inlineStr"/>
       <c r="D2150" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>5.8%</t>
         </is>
       </c>
       <c r="E2150" t="inlineStr"/>
@@ -59002,95 +58998,79 @@
     <row r="2151">
       <c r="A2151" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2151" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/16</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="C2151" t="inlineStr"/>
-      <c r="D2151" t="inlineStr">
-        <is>
-          <t>251.2</t>
-        </is>
-      </c>
+      <c r="D2151" t="inlineStr"/>
       <c r="E2151" t="inlineStr"/>
       <c r="F2151" t="inlineStr"/>
       <c r="G2151" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2152">
       <c r="A2152" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2152" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/16</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C2152" t="inlineStr"/>
-      <c r="D2152" t="inlineStr">
-        <is>
-          <t>718.1</t>
-        </is>
-      </c>
+      <c r="D2152" t="inlineStr"/>
       <c r="E2152" t="inlineStr"/>
       <c r="F2152" t="inlineStr"/>
       <c r="G2152" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2153">
       <c r="A2153" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2153" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/16</t>
+          <t>Fed Collins Speech</t>
         </is>
       </c>
       <c r="C2153" t="inlineStr"/>
-      <c r="D2153" t="inlineStr">
-        <is>
-          <t>166.5</t>
-        </is>
-      </c>
+      <c r="D2153" t="inlineStr"/>
       <c r="E2153" t="inlineStr"/>
       <c r="F2153" t="inlineStr"/>
       <c r="G2153" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2154">
       <c r="A2154" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2154" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/16</t>
+          <t>Fed Musalem Speech</t>
         </is>
       </c>
       <c r="C2154" t="inlineStr"/>
-      <c r="D2154" t="inlineStr">
-        <is>
-          <t>3.454M</t>
-        </is>
-      </c>
+      <c r="D2154" t="inlineStr"/>
       <c r="E2154" t="inlineStr"/>
       <c r="F2154" t="inlineStr"/>
       <c r="G2154" t="inlineStr">
@@ -59102,168 +59082,144 @@
     <row r="2155">
       <c r="A2155" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2155" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAY/16</t>
-        </is>
-      </c>
+          <t>Wednesday May 21 2025</t>
+        </is>
+      </c>
+      <c r="B2155" t="inlineStr"/>
       <c r="C2155" t="inlineStr"/>
-      <c r="D2155" t="inlineStr">
-        <is>
-          <t>-1.022M</t>
-        </is>
-      </c>
+      <c r="D2155" t="inlineStr"/>
       <c r="E2155" t="inlineStr"/>
       <c r="F2155" t="inlineStr"/>
-      <c r="G2155" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2155" t="inlineStr"/>
     </row>
     <row r="2156">
       <c r="A2156" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2156" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAY/16</t>
+          <t>API Crude Oil Stock ChangeMAY/16</t>
         </is>
       </c>
       <c r="C2156" t="inlineStr"/>
       <c r="D2156" t="inlineStr">
         <is>
-          <t>0.422M</t>
+          <t>4.287M</t>
         </is>
       </c>
       <c r="E2156" t="inlineStr"/>
       <c r="F2156" t="inlineStr"/>
       <c r="G2156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2157">
       <c r="A2157" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B2157" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/16</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="C2157" t="inlineStr"/>
-      <c r="D2157" t="inlineStr">
-        <is>
-          <t>-1.069M</t>
-        </is>
-      </c>
+      <c r="D2157" t="inlineStr"/>
       <c r="E2157" t="inlineStr"/>
       <c r="F2157" t="inlineStr"/>
       <c r="G2157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2158">
       <c r="A2158" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2158" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/16</t>
+          <t>Fed Daly Speech</t>
         </is>
       </c>
       <c r="C2158" t="inlineStr"/>
-      <c r="D2158" t="inlineStr">
-        <is>
-          <t>-0.069M</t>
-        </is>
-      </c>
+      <c r="D2158" t="inlineStr"/>
       <c r="E2158" t="inlineStr"/>
       <c r="F2158" t="inlineStr"/>
       <c r="G2158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2159">
       <c r="A2159" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2159" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAY/16</t>
+          <t>Fed Hammack Speech</t>
         </is>
       </c>
       <c r="C2159" t="inlineStr"/>
-      <c r="D2159" t="inlineStr">
-        <is>
-          <t>-3.155M</t>
-        </is>
-      </c>
+      <c r="D2159" t="inlineStr"/>
       <c r="E2159" t="inlineStr"/>
       <c r="F2159" t="inlineStr"/>
       <c r="G2159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2160">
       <c r="A2160" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2160" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAY/16</t>
+          <t>MBA 30-Year Mortgage RateMAY/16</t>
         </is>
       </c>
       <c r="C2160" t="inlineStr"/>
       <c r="D2160" t="inlineStr">
         <is>
-          <t>-0.327M</t>
+          <t>6.86%</t>
         </is>
       </c>
       <c r="E2160" t="inlineStr"/>
       <c r="F2160" t="inlineStr"/>
       <c r="G2160" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2161">
       <c r="A2161" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2161" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/16</t>
+          <t>MBA Mortgage ApplicationsMAY/16</t>
         </is>
       </c>
       <c r="C2161" t="inlineStr"/>
       <c r="D2161" t="inlineStr">
         <is>
-          <t>0.292M</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="E2161" t="inlineStr"/>
@@ -59277,18 +59233,18 @@
     <row r="2162">
       <c r="A2162" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2162" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/16</t>
+          <t>MBA Mortgage Market IndexMAY/16</t>
         </is>
       </c>
       <c r="C2162" t="inlineStr"/>
       <c r="D2162" t="inlineStr">
         <is>
-          <t>0.33M</t>
+          <t>251.2</t>
         </is>
       </c>
       <c r="E2162" t="inlineStr"/>
@@ -59302,18 +59258,18 @@
     <row r="2163">
       <c r="A2163" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2163" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>MBA Mortgage Refinance IndexMAY/16</t>
         </is>
       </c>
       <c r="C2163" t="inlineStr"/>
       <c r="D2163" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>718.1</t>
         </is>
       </c>
       <c r="E2163" t="inlineStr"/>
@@ -59327,18 +59283,18 @@
     <row r="2164">
       <c r="A2164" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2164" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>MBA Purchase IndexMAY/16</t>
         </is>
       </c>
       <c r="C2164" t="inlineStr"/>
       <c r="D2164" t="inlineStr">
         <is>
-          <t>4.810%</t>
+          <t>166.5</t>
         </is>
       </c>
       <c r="E2164" t="inlineStr"/>
@@ -59352,39 +59308,47 @@
     <row r="2165">
       <c r="A2165" t="inlineStr">
         <is>
-          <t>Thursday May 22 2025</t>
-        </is>
-      </c>
-      <c r="B2165" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B2165" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Stocks ChangeMAY/16</t>
+        </is>
+      </c>
       <c r="C2165" t="inlineStr"/>
-      <c r="D2165" t="inlineStr"/>
+      <c r="D2165" t="inlineStr">
+        <is>
+          <t>3.454M</t>
+        </is>
+      </c>
       <c r="E2165" t="inlineStr"/>
       <c r="F2165" t="inlineStr"/>
-      <c r="G2165" t="inlineStr"/>
+      <c r="G2165" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2166">
       <c r="A2166" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2166" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexAPR</t>
+          <t>EIA Gasoline Stocks ChangeMAY/16</t>
         </is>
       </c>
       <c r="C2166" t="inlineStr"/>
       <c r="D2166" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-1.022M</t>
         </is>
       </c>
       <c r="E2166" t="inlineStr"/>
-      <c r="F2166" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
+      <c r="F2166" t="inlineStr"/>
       <c r="G2166" t="inlineStr">
         <is>
           <t>2</t>
@@ -59394,59 +59358,47 @@
     <row r="2167">
       <c r="A2167" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2167" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsMAY/17</t>
+          <t>EIA Crude Oil Imports ChangeMAY/16</t>
         </is>
       </c>
       <c r="C2167" t="inlineStr"/>
       <c r="D2167" t="inlineStr">
         <is>
-          <t>229K</t>
-        </is>
-      </c>
-      <c r="E2167" t="inlineStr">
-        <is>
-          <t>232K</t>
-        </is>
-      </c>
-      <c r="F2167" t="inlineStr">
-        <is>
-          <t>231.0K</t>
-        </is>
-      </c>
+          <t>0.422M</t>
+        </is>
+      </c>
+      <c r="E2167" t="inlineStr"/>
+      <c r="F2167" t="inlineStr"/>
       <c r="G2167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2168">
       <c r="A2168" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2168" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsMAY/10</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/16</t>
         </is>
       </c>
       <c r="C2168" t="inlineStr"/>
       <c r="D2168" t="inlineStr">
         <is>
-          <t>1881K</t>
+          <t>-1.069M</t>
         </is>
       </c>
       <c r="E2168" t="inlineStr"/>
-      <c r="F2168" t="inlineStr">
-        <is>
-          <t>1885.0K</t>
-        </is>
-      </c>
+      <c r="F2168" t="inlineStr"/>
       <c r="G2168" t="inlineStr">
         <is>
           <t>3</t>
@@ -59456,26 +59408,22 @@
     <row r="2169">
       <c r="A2169" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2169" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageMAY/17</t>
+          <t>EIA Distillate Fuel Production ChangeMAY/16</t>
         </is>
       </c>
       <c r="C2169" t="inlineStr"/>
       <c r="D2169" t="inlineStr">
         <is>
-          <t>230.5K</t>
+          <t>-0.069M</t>
         </is>
       </c>
       <c r="E2169" t="inlineStr"/>
-      <c r="F2169" t="inlineStr">
-        <is>
-          <t>231.0K</t>
-        </is>
-      </c>
+      <c r="F2169" t="inlineStr"/>
       <c r="G2169" t="inlineStr">
         <is>
           <t>3</t>
@@ -59485,161 +59433,137 @@
     <row r="2170">
       <c r="A2170" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2170" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashMAY</t>
+          <t>EIA Distillate Stocks ChangeMAY/16</t>
         </is>
       </c>
       <c r="C2170" t="inlineStr"/>
       <c r="D2170" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>-3.155M</t>
         </is>
       </c>
       <c r="E2170" t="inlineStr"/>
-      <c r="F2170" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
+      <c r="F2170" t="inlineStr"/>
       <c r="G2170" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2171">
       <c r="A2171" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2171" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashMAY</t>
+          <t>EIA Gasoline Production ChangeMAY/16</t>
         </is>
       </c>
       <c r="C2171" t="inlineStr"/>
       <c r="D2171" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>-0.327M</t>
         </is>
       </c>
       <c r="E2171" t="inlineStr"/>
-      <c r="F2171" t="inlineStr">
-        <is>
-          <t>50.3</t>
-        </is>
-      </c>
+      <c r="F2171" t="inlineStr"/>
       <c r="G2171" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2172">
       <c r="A2172" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2172" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashMAY</t>
+          <t>EIA Heating Oil Stocks ChangeMAY/16</t>
         </is>
       </c>
       <c r="C2172" t="inlineStr"/>
       <c r="D2172" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>0.292M</t>
         </is>
       </c>
       <c r="E2172" t="inlineStr"/>
-      <c r="F2172" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+      <c r="F2172" t="inlineStr"/>
       <c r="G2172" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2173">
       <c r="A2173" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2173" t="inlineStr">
         <is>
-          <t>Existing Home SalesAPR</t>
+          <t>EIA Refinery Crude Runs ChangeMAY/16</t>
         </is>
       </c>
       <c r="C2173" t="inlineStr"/>
       <c r="D2173" t="inlineStr">
         <is>
-          <t>4.02M</t>
-        </is>
-      </c>
-      <c r="E2173" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
-      <c r="F2173" t="inlineStr">
-        <is>
-          <t>3.9M</t>
-        </is>
-      </c>
+          <t>0.33M</t>
+        </is>
+      </c>
+      <c r="E2173" t="inlineStr"/>
+      <c r="F2173" t="inlineStr"/>
       <c r="G2173" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2174">
       <c r="A2174" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2174" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMAPR</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2174" t="inlineStr"/>
       <c r="D2174" t="inlineStr">
         <is>
-          <t>-5.9%</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="E2174" t="inlineStr"/>
-      <c r="F2174" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
+      <c r="F2174" t="inlineStr"/>
       <c r="G2174" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2175">
       <c r="A2175" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2175" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/16</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="C2175" t="inlineStr"/>
@@ -59648,33 +59572,29 @@
       <c r="F2175" t="inlineStr"/>
       <c r="G2175" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2176">
       <c r="A2176" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2176" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexMAY</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="C2176" t="inlineStr"/>
       <c r="D2176" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>4.810%</t>
         </is>
       </c>
       <c r="E2176" t="inlineStr"/>
-      <c r="F2176" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
+      <c r="F2176" t="inlineStr"/>
       <c r="G2176" t="inlineStr">
         <is>
           <t>3</t>
@@ -59684,93 +59604,101 @@
     <row r="2177">
       <c r="A2177" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2177" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexMAY</t>
-        </is>
-      </c>
+          <t>Thursday May 22 2025</t>
+        </is>
+      </c>
+      <c r="B2177" t="inlineStr"/>
       <c r="C2177" t="inlineStr"/>
-      <c r="D2177" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+      <c r="D2177" t="inlineStr"/>
       <c r="E2177" t="inlineStr"/>
-      <c r="F2177" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="G2177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F2177" t="inlineStr"/>
+      <c r="G2177" t="inlineStr"/>
     </row>
     <row r="2178">
       <c r="A2178" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2178" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Chicago Fed National Activity IndexAPR</t>
         </is>
       </c>
       <c r="C2178" t="inlineStr"/>
-      <c r="D2178" t="inlineStr"/>
+      <c r="D2178" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
       <c r="E2178" t="inlineStr"/>
-      <c r="F2178" t="inlineStr"/>
+      <c r="F2178" t="inlineStr">
+        <is>
+          <t>-0.2</t>
+        </is>
+      </c>
       <c r="G2178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2179">
       <c r="A2179" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2179" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Initial Jobless ClaimsMAY/17</t>
         </is>
       </c>
       <c r="C2179" t="inlineStr"/>
-      <c r="D2179" t="inlineStr"/>
-      <c r="E2179" t="inlineStr"/>
-      <c r="F2179" t="inlineStr"/>
+      <c r="D2179" t="inlineStr">
+        <is>
+          <t>229K</t>
+        </is>
+      </c>
+      <c r="E2179" t="inlineStr">
+        <is>
+          <t>232K</t>
+        </is>
+      </c>
+      <c r="F2179" t="inlineStr">
+        <is>
+          <t>231.0K</t>
+        </is>
+      </c>
       <c r="G2179" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2180">
       <c r="A2180" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2180" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>Continuing Jobless ClaimsMAY/10</t>
         </is>
       </c>
       <c r="C2180" t="inlineStr"/>
       <c r="D2180" t="inlineStr">
         <is>
-          <t>1.935%</t>
+          <t>1881K</t>
         </is>
       </c>
       <c r="E2180" t="inlineStr"/>
-      <c r="F2180" t="inlineStr"/>
+      <c r="F2180" t="inlineStr">
+        <is>
+          <t>1885.0K</t>
+        </is>
+      </c>
       <c r="G2180" t="inlineStr">
         <is>
           <t>3</t>
@@ -59780,22 +59708,26 @@
     <row r="2181">
       <c r="A2181" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2181" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateMAY/22</t>
+          <t>Jobless Claims 4-week AverageMAY/17</t>
         </is>
       </c>
       <c r="C2181" t="inlineStr"/>
       <c r="D2181" t="inlineStr">
         <is>
-          <t>5.92%</t>
+          <t>230.5K</t>
         </is>
       </c>
       <c r="E2181" t="inlineStr"/>
-      <c r="F2181" t="inlineStr"/>
+      <c r="F2181" t="inlineStr">
+        <is>
+          <t>231.0K</t>
+        </is>
+      </c>
       <c r="G2181" t="inlineStr">
         <is>
           <t>3</t>
@@ -59805,63 +59737,87 @@
     <row r="2182">
       <c r="A2182" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2182" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateMAY/22</t>
+          <t>S&amp;P Global Composite PMI FlashMAY</t>
         </is>
       </c>
       <c r="C2182" t="inlineStr"/>
       <c r="D2182" t="inlineStr">
         <is>
-          <t>6.81%</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="E2182" t="inlineStr"/>
-      <c r="F2182" t="inlineStr"/>
+      <c r="F2182" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="G2182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2183">
       <c r="A2183" t="inlineStr">
         <is>
-          <t>Friday May 23 2025</t>
-        </is>
-      </c>
-      <c r="B2183" t="inlineStr"/>
+          <t>07:15 PM</t>
+        </is>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMI FlashMAY</t>
+        </is>
+      </c>
       <c r="C2183" t="inlineStr"/>
-      <c r="D2183" t="inlineStr"/>
+      <c r="D2183" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="E2183" t="inlineStr"/>
-      <c r="F2183" t="inlineStr"/>
-      <c r="G2183" t="inlineStr"/>
+      <c r="F2183" t="inlineStr">
+        <is>
+          <t>50.3</t>
+        </is>
+      </c>
+      <c r="G2183" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2184">
       <c r="A2184" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2184" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAY/21</t>
+          <t>S&amp;P Global Services PMI FlashMAY</t>
         </is>
       </c>
       <c r="C2184" t="inlineStr"/>
       <c r="D2184" t="inlineStr">
         <is>
-          <t>$6.71T</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="E2184" t="inlineStr"/>
-      <c r="F2184" t="inlineStr"/>
+      <c r="F2184" t="inlineStr">
+        <is>
+          <t>50.6</t>
+        </is>
+      </c>
       <c r="G2184" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -59873,28 +59829,28 @@
       </c>
       <c r="B2185" t="inlineStr">
         <is>
-          <t>New Home SalesAPR</t>
+          <t>Existing Home SalesAPR</t>
         </is>
       </c>
       <c r="C2185" t="inlineStr"/>
       <c r="D2185" t="inlineStr">
         <is>
-          <t>0.724M</t>
+          <t>4.02M</t>
         </is>
       </c>
       <c r="E2185" t="inlineStr">
         <is>
-          <t>0.70M</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="F2185" t="inlineStr">
         <is>
-          <t>0.69M</t>
+          <t>3.9M</t>
         </is>
       </c>
       <c r="G2185" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -59906,19 +59862,19 @@
       </c>
       <c r="B2186" t="inlineStr">
         <is>
-          <t>New Home Sales MoMAPR</t>
+          <t>Existing Home Sales MoMAPR</t>
         </is>
       </c>
       <c r="C2186" t="inlineStr"/>
       <c r="D2186" t="inlineStr">
         <is>
-          <t>7.4%</t>
+          <t>-5.9%</t>
         </is>
       </c>
       <c r="E2186" t="inlineStr"/>
       <c r="F2186" t="inlineStr">
         <is>
-          <t>-4.7%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="G2186" t="inlineStr">
@@ -59930,39 +59886,51 @@
     <row r="2187">
       <c r="A2187" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2187" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/16</t>
         </is>
       </c>
       <c r="C2187" t="inlineStr"/>
-      <c r="D2187" t="inlineStr"/>
+      <c r="D2187" t="inlineStr">
+        <is>
+          <t>110Bcf</t>
+        </is>
+      </c>
       <c r="E2187" t="inlineStr"/>
       <c r="F2187" t="inlineStr"/>
       <c r="G2187" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2188">
       <c r="A2188" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2188" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/23</t>
+          <t>Kansas Fed Composite IndexMAY</t>
         </is>
       </c>
       <c r="C2188" t="inlineStr"/>
-      <c r="D2188" t="inlineStr"/>
+      <c r="D2188" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
       <c r="E2188" t="inlineStr"/>
-      <c r="F2188" t="inlineStr"/>
+      <c r="F2188" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="G2188" t="inlineStr">
         <is>
           <t>3</t>
@@ -59972,18 +59940,26 @@
     <row r="2189">
       <c r="A2189" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2189" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/23</t>
+          <t>Kansas Fed Manufacturing IndexMAY</t>
         </is>
       </c>
       <c r="C2189" t="inlineStr"/>
-      <c r="D2189" t="inlineStr"/>
+      <c r="D2189" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="E2189" t="inlineStr"/>
-      <c r="F2189" t="inlineStr"/>
+      <c r="F2189" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
       <c r="G2189" t="inlineStr">
         <is>
           <t>3</t>
@@ -59991,16 +59967,20 @@
       </c>
     </row>
     <row r="2190">
-      <c r="A2190" t="inlineStr"/>
+      <c r="A2190" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
       <c r="B2190" t="inlineStr">
         <is>
-          <t>Building Permits FinalAPR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2190" t="inlineStr"/>
       <c r="D2190" t="inlineStr">
         <is>
-          <t>1.467M</t>
+          <t>4.22%</t>
         </is>
       </c>
       <c r="E2190" t="inlineStr"/>
@@ -60012,16 +59992,20 @@
       </c>
     </row>
     <row r="2191">
-      <c r="A2191" t="inlineStr"/>
+      <c r="A2191" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
       <c r="B2191" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalAPR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2191" t="inlineStr"/>
       <c r="D2191" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E2191" t="inlineStr"/>
@@ -60035,32 +60019,333 @@
     <row r="2192">
       <c r="A2192" t="inlineStr">
         <is>
-          <t>Monday May 26 2025</t>
-        </is>
-      </c>
-      <c r="B2192" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>10-Year TIPS Auction</t>
+        </is>
+      </c>
       <c r="C2192" t="inlineStr"/>
-      <c r="D2192" t="inlineStr"/>
+      <c r="D2192" t="inlineStr">
+        <is>
+          <t>1.935%</t>
+        </is>
+      </c>
       <c r="E2192" t="inlineStr"/>
       <c r="F2192" t="inlineStr"/>
-      <c r="G2192" t="inlineStr"/>
+      <c r="G2192" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2193">
       <c r="A2193" t="inlineStr">
         <is>
-          <t>12:10 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2193" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Speech</t>
+          <t>15-Year Mortgage RateMAY/22</t>
         </is>
       </c>
       <c r="C2193" t="inlineStr"/>
-      <c r="D2193" t="inlineStr"/>
+      <c r="D2193" t="inlineStr">
+        <is>
+          <t>5.92%</t>
+        </is>
+      </c>
       <c r="E2193" t="inlineStr"/>
       <c r="F2193" t="inlineStr"/>
       <c r="G2193" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateMAY/22</t>
+        </is>
+      </c>
+      <c r="C2194" t="inlineStr"/>
+      <c r="D2194" t="inlineStr">
+        <is>
+          <t>6.81%</t>
+        </is>
+      </c>
+      <c r="E2194" t="inlineStr"/>
+      <c r="F2194" t="inlineStr"/>
+      <c r="G2194" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>Fed Williams Speech</t>
+        </is>
+      </c>
+      <c r="C2195" t="inlineStr"/>
+      <c r="D2195" t="inlineStr"/>
+      <c r="E2195" t="inlineStr"/>
+      <c r="F2195" t="inlineStr"/>
+      <c r="G2195" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="inlineStr">
+        <is>
+          <t>Friday May 23 2025</t>
+        </is>
+      </c>
+      <c r="B2196" t="inlineStr"/>
+      <c r="C2196" t="inlineStr"/>
+      <c r="D2196" t="inlineStr"/>
+      <c r="E2196" t="inlineStr"/>
+      <c r="F2196" t="inlineStr"/>
+      <c r="G2196" t="inlineStr"/>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetMAY/21</t>
+        </is>
+      </c>
+      <c r="C2197" t="inlineStr"/>
+      <c r="D2197" t="inlineStr">
+        <is>
+          <t>$6.71T</t>
+        </is>
+      </c>
+      <c r="E2197" t="inlineStr"/>
+      <c r="F2197" t="inlineStr"/>
+      <c r="G2197" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>New Home SalesAPR</t>
+        </is>
+      </c>
+      <c r="C2198" t="inlineStr"/>
+      <c r="D2198" t="inlineStr">
+        <is>
+          <t>0.724M</t>
+        </is>
+      </c>
+      <c r="E2198" t="inlineStr">
+        <is>
+          <t>0.70M</t>
+        </is>
+      </c>
+      <c r="F2198" t="inlineStr">
+        <is>
+          <t>0.69M</t>
+        </is>
+      </c>
+      <c r="G2198" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>New Home Sales MoMAPR</t>
+        </is>
+      </c>
+      <c r="C2199" t="inlineStr"/>
+      <c r="D2199" t="inlineStr">
+        <is>
+          <t>7.4%</t>
+        </is>
+      </c>
+      <c r="E2199" t="inlineStr"/>
+      <c r="F2199" t="inlineStr">
+        <is>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="G2199" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>Fed Cook Speech</t>
+        </is>
+      </c>
+      <c r="C2200" t="inlineStr"/>
+      <c r="D2200" t="inlineStr"/>
+      <c r="E2200" t="inlineStr"/>
+      <c r="F2200" t="inlineStr"/>
+      <c r="G2200" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountMAY/23</t>
+        </is>
+      </c>
+      <c r="C2201" t="inlineStr"/>
+      <c r="D2201" t="inlineStr"/>
+      <c r="E2201" t="inlineStr"/>
+      <c r="F2201" t="inlineStr"/>
+      <c r="G2201" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountMAY/23</t>
+        </is>
+      </c>
+      <c r="C2202" t="inlineStr"/>
+      <c r="D2202" t="inlineStr"/>
+      <c r="E2202" t="inlineStr"/>
+      <c r="F2202" t="inlineStr"/>
+      <c r="G2202" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="inlineStr"/>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>Building Permits FinalAPR</t>
+        </is>
+      </c>
+      <c r="C2203" t="inlineStr"/>
+      <c r="D2203" t="inlineStr">
+        <is>
+          <t>1.467M</t>
+        </is>
+      </c>
+      <c r="E2203" t="inlineStr"/>
+      <c r="F2203" t="inlineStr"/>
+      <c r="G2203" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="inlineStr"/>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>Building Permits MoM FinalAPR</t>
+        </is>
+      </c>
+      <c r="C2204" t="inlineStr"/>
+      <c r="D2204" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E2204" t="inlineStr"/>
+      <c r="F2204" t="inlineStr"/>
+      <c r="G2204" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="inlineStr">
+        <is>
+          <t>Monday May 26 2025</t>
+        </is>
+      </c>
+      <c r="B2205" t="inlineStr"/>
+      <c r="C2205" t="inlineStr"/>
+      <c r="D2205" t="inlineStr"/>
+      <c r="E2205" t="inlineStr"/>
+      <c r="F2205" t="inlineStr"/>
+      <c r="G2205" t="inlineStr"/>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="inlineStr">
+        <is>
+          <t>12:10 AM</t>
+        </is>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>Fed Chair Powell Speech</t>
+        </is>
+      </c>
+      <c r="C2206" t="inlineStr"/>
+      <c r="D2206" t="inlineStr"/>
+      <c r="E2206" t="inlineStr"/>
+      <c r="F2206" t="inlineStr"/>
+      <c r="G2206" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
@@ -58199,10 +58199,14 @@
           <t>Building Permits PrelAPR</t>
         </is>
       </c>
-      <c r="C2120" t="inlineStr"/>
+      <c r="C2120" t="inlineStr">
+        <is>
+          <t>1.412M</t>
+        </is>
+      </c>
       <c r="D2120" t="inlineStr">
         <is>
-          <t>1.467M</t>
+          <t>1.481M</t>
         </is>
       </c>
       <c r="E2120" t="inlineStr">
@@ -58232,10 +58236,14 @@
           <t>Housing StartsAPR</t>
         </is>
       </c>
-      <c r="C2121" t="inlineStr"/>
+      <c r="C2121" t="inlineStr">
+        <is>
+          <t>1.361M</t>
+        </is>
+      </c>
       <c r="D2121" t="inlineStr">
         <is>
-          <t>1.324M</t>
+          <t>1.339M</t>
         </is>
       </c>
       <c r="E2121" t="inlineStr">
@@ -58265,10 +58273,14 @@
           <t>Building Permits MoM PrelAPR</t>
         </is>
       </c>
-      <c r="C2122" t="inlineStr"/>
+      <c r="C2122" t="inlineStr">
+        <is>
+          <t>-4.7%</t>
+        </is>
+      </c>
       <c r="D2122" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="E2122" t="inlineStr"/>
@@ -58294,10 +58306,14 @@
           <t>Export Prices MoMAPR</t>
         </is>
       </c>
-      <c r="C2123" t="inlineStr"/>
+      <c r="C2123" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="D2123" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E2123" t="inlineStr">
@@ -58327,10 +58343,14 @@
           <t>Housing Starts MoMAPR</t>
         </is>
       </c>
-      <c r="C2124" t="inlineStr"/>
+      <c r="C2124" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="D2124" t="inlineStr">
         <is>
-          <t>-11.4%</t>
+          <t>-10.1%</t>
         </is>
       </c>
       <c r="E2124" t="inlineStr"/>
@@ -58356,10 +58376,14 @@
           <t>Import Prices MoMAPR</t>
         </is>
       </c>
-      <c r="C2125" t="inlineStr"/>
+      <c r="C2125" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="D2125" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E2125" t="inlineStr">
@@ -58389,10 +58413,14 @@
           <t>Export Prices YoYAPR</t>
         </is>
       </c>
-      <c r="C2126" t="inlineStr"/>
+      <c r="C2126" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="D2126" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="E2126" t="inlineStr"/>
@@ -58418,10 +58446,14 @@
           <t>Import Prices YoYAPR</t>
         </is>
       </c>
-      <c r="C2127" t="inlineStr"/>
+      <c r="C2127" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="D2127" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E2127" t="inlineStr"/>
@@ -59780,7 +59812,11 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="E2183" t="inlineStr"/>
+      <c r="E2183" t="inlineStr">
+        <is>
+          <t>49.9</t>
+        </is>
+      </c>
       <c r="F2183" t="inlineStr">
         <is>
           <t>50.3</t>
@@ -59809,7 +59845,11 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="E2184" t="inlineStr"/>
+      <c r="E2184" t="inlineStr">
+        <is>
+          <t>50.7</t>
+        </is>
+      </c>
       <c r="F2184" t="inlineStr">
         <is>
           <t>50.6</t>
@@ -60288,8 +60328,16 @@
           <t>1.467M</t>
         </is>
       </c>
-      <c r="E2203" t="inlineStr"/>
-      <c r="F2203" t="inlineStr"/>
+      <c r="E2203" t="inlineStr">
+        <is>
+          <t>1.412M</t>
+        </is>
+      </c>
+      <c r="F2203" t="inlineStr">
+        <is>
+          <t>1.412M</t>
+        </is>
+      </c>
       <c r="G2203" t="inlineStr">
         <is>
           <t>3</t>
@@ -60309,8 +60357,16 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="E2204" t="inlineStr"/>
-      <c r="F2204" t="inlineStr"/>
+      <c r="E2204" t="inlineStr">
+        <is>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F2204" t="inlineStr">
+        <is>
+          <t>-4.7%</t>
+        </is>
+      </c>
       <c r="G2204" t="inlineStr">
         <is>
           <t>3</t>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
@@ -58479,7 +58479,11 @@
           <t>Michigan Consumer Sentiment PrelMAY</t>
         </is>
       </c>
-      <c r="C2128" t="inlineStr"/>
+      <c r="C2128" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="D2128" t="inlineStr">
         <is>
           <t>52.2</t>
@@ -58512,7 +58516,11 @@
           <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
         </is>
       </c>
-      <c r="C2129" t="inlineStr"/>
+      <c r="C2129" t="inlineStr">
+        <is>
+          <t>4.6%</t>
+        </is>
+      </c>
       <c r="D2129" t="inlineStr">
         <is>
           <t>4.4%</t>
@@ -58541,7 +58549,11 @@
           <t>Michigan Consumer Expectations PrelMAY</t>
         </is>
       </c>
-      <c r="C2130" t="inlineStr"/>
+      <c r="C2130" t="inlineStr">
+        <is>
+          <t>46.5</t>
+        </is>
+      </c>
       <c r="D2130" t="inlineStr">
         <is>
           <t>47.3</t>
@@ -58574,7 +58586,11 @@
           <t>Michigan Current Conditions PrelMAY</t>
         </is>
       </c>
-      <c r="C2131" t="inlineStr"/>
+      <c r="C2131" t="inlineStr">
+        <is>
+          <t>57.6</t>
+        </is>
+      </c>
       <c r="D2131" t="inlineStr">
         <is>
           <t>59.8</t>
@@ -58607,7 +58623,11 @@
           <t>Michigan Inflation Expectations PrelMAY</t>
         </is>
       </c>
-      <c r="C2132" t="inlineStr"/>
+      <c r="C2132" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
       <c r="D2132" t="inlineStr">
         <is>
           <t>6.5%</t>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
@@ -59806,7 +59806,7 @@
       <c r="E2182" t="inlineStr"/>
       <c r="F2182" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="G2182" t="inlineStr">
@@ -59839,7 +59839,7 @@
       </c>
       <c r="F2183" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2183" t="inlineStr">
@@ -60084,13 +60084,13 @@
       </c>
       <c r="B2192" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>15-Year Mortgage RateMAY/22</t>
         </is>
       </c>
       <c r="C2192" t="inlineStr"/>
       <c r="D2192" t="inlineStr">
         <is>
-          <t>1.935%</t>
+          <t>5.92%</t>
         </is>
       </c>
       <c r="E2192" t="inlineStr"/>
@@ -60109,13 +60109,13 @@
       </c>
       <c r="B2193" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateMAY/22</t>
+          <t>30-Year Mortgage RateMAY/22</t>
         </is>
       </c>
       <c r="C2193" t="inlineStr"/>
       <c r="D2193" t="inlineStr">
         <is>
-          <t>5.92%</t>
+          <t>6.81%</t>
         </is>
       </c>
       <c r="E2193" t="inlineStr"/>
@@ -60129,18 +60129,18 @@
     <row r="2194">
       <c r="A2194" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2194" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateMAY/22</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C2194" t="inlineStr"/>
       <c r="D2194" t="inlineStr">
         <is>
-          <t>6.81%</t>
+          <t>1.935%</t>
         </is>
       </c>
       <c r="E2194" t="inlineStr"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
@@ -58656,7 +58656,11 @@
           <t>Baker Hughes Oil Rig CountMAY/16</t>
         </is>
       </c>
-      <c r="C2133" t="inlineStr"/>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
       <c r="D2133" t="inlineStr">
         <is>
           <t>474</t>
@@ -58681,7 +58685,11 @@
           <t>Baker Hughes Total Rigs CountMAY/16</t>
         </is>
       </c>
-      <c r="C2134" t="inlineStr"/>
+      <c r="C2134" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
       <c r="D2134" t="inlineStr">
         <is>
           <t>578</t>
@@ -60305,7 +60313,11 @@
         </is>
       </c>
       <c r="C2201" t="inlineStr"/>
-      <c r="D2201" t="inlineStr"/>
+      <c r="D2201" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
       <c r="E2201" t="inlineStr"/>
       <c r="F2201" t="inlineStr"/>
       <c r="G2201" t="inlineStr">
@@ -60326,7 +60338,11 @@
         </is>
       </c>
       <c r="C2202" t="inlineStr"/>
-      <c r="D2202" t="inlineStr"/>
+      <c r="D2202" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
       <c r="E2202" t="inlineStr"/>
       <c r="F2202" t="inlineStr"/>
       <c r="G2202" t="inlineStr">

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
@@ -58727,10 +58727,14 @@
           <t>Net Long-term TIC FlowsMAR</t>
         </is>
       </c>
-      <c r="C2136" t="inlineStr"/>
+      <c r="C2136" t="inlineStr">
+        <is>
+          <t>$161.8B</t>
+        </is>
+      </c>
       <c r="D2136" t="inlineStr">
         <is>
-          <t>$112B</t>
+          <t>$112.9B</t>
         </is>
       </c>
       <c r="E2136" t="inlineStr">
@@ -58756,7 +58760,11 @@
           <t>Foreign Bond InvestmentMAR</t>
         </is>
       </c>
-      <c r="C2137" t="inlineStr"/>
+      <c r="C2137" t="inlineStr">
+        <is>
+          <t>$123.3B</t>
+        </is>
+      </c>
       <c r="D2137" t="inlineStr">
         <is>
           <t>$106.2B</t>
@@ -58781,10 +58789,14 @@
           <t>Overall Net Capital FlowsMAR</t>
         </is>
       </c>
-      <c r="C2138" t="inlineStr"/>
+      <c r="C2138" t="inlineStr">
+        <is>
+          <t>$254.3B</t>
+        </is>
+      </c>
       <c r="D2138" t="inlineStr">
         <is>
-          <t>$284.7B</t>
+          <t>$248.9B</t>
         </is>
       </c>
       <c r="E2138" t="inlineStr"/>
